--- a/SignManageByFaceReg/web/download/courseTimeTable.xlsx
+++ b/SignManageByFaceReg/web/download/courseTimeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tattoo/Java-Web/SignManageByFaceReg/web/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA9AD7-BC0D-EC44-8655-7686D03C0769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DBF73-C1C5-CC4B-A4D0-952162BC177D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17440" xr2:uid="{F5F22A9B-B0BE-7E4E-890A-4D0BCF050EFB}"/>
   </bookViews>
@@ -88,8 +88,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615733B2-FDE8-FD4D-9C97-376572CEE551}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -430,6 +433,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43959.333333333336</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43959.416666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43961.604166666664</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43961.6875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43959.333333333336</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43959.333333333336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
